--- a/medicine/Hématologie/Alpha_2-antiplasmine/Alpha_2-antiplasmine.xlsx
+++ b/medicine/Hématologie/Alpha_2-antiplasmine/Alpha_2-antiplasmine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'alpha 2-antiplasmine est une protéine inhibitrice de la plasmine, et donc de la fibrinolyse. Son gène est SERPINF2 porté par le chromosome 17 humain.
-Elle a été découverte en 1976[5].
+Elle a été découverte en 1976.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Formée de 464 acides aminés, elle est clivée par une protéase (APCE) en un protéine de 452 acides aminés plus actives[6].
-Il s'agit du principal inhibiteur de la plasmine[7]. Elle se lie au facteur XIII et à la fibrine, permettant la stabilisation du thrombus[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Formée de 464 acides aminés, elle est clivée par une protéase (APCE) en un protéine de 452 acides aminés plus actives.
+Il s'agit du principal inhibiteur de la plasmine. Elle se lie au facteur XIII et à la fibrine, permettant la stabilisation du thrombus.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un déficit congénital en cette protéine induit un syndrome hémorragique[5].
-Son inhibition pourrait constituer une voie thérapeutique : elle activerait la fibrinolyse sans dégrader le fibrinogène et avec un moindre risque de saignements[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un déficit congénital en cette protéine induit un syndrome hémorragique.
+Son inhibition pourrait constituer une voie thérapeutique : elle activerait la fibrinolyse sans dégrader le fibrinogène et avec un moindre risque de saignements.
 </t>
         </is>
       </c>
